--- a/data/income_statement/2digits/total/47_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/47_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>47-Retail trade, except of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>47-Retail trade, except of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,209 +841,239 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>168832661.00121</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>193269276.73702</v>
+        <v>193299848.94948</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>238223188.12533</v>
+        <v>238291776.51999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>272880447.23291</v>
+        <v>273527102.90869</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>304716099.1737</v>
+        <v>308297972.50591</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>339483928.86406</v>
+        <v>347630665.35387</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>375081244.30981</v>
+        <v>387310197.75911</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>423696572.25109</v>
+        <v>430513265.5466599</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>515926326.7991101</v>
+        <v>515926326.79911</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>593900689.49493</v>
+        <v>595177725.05152</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>695977354.58262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>705906862.3794299</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>785414296.791</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>161069891.56257</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>184201797.30446</v>
+        <v>184231553.23225</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>226794844.16661</v>
+        <v>226861427.77954</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>259986366.87471</v>
+        <v>260628763.98712</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>289932102.72246</v>
+        <v>293373180.8771499</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>323102554.83901</v>
+        <v>330766616.6809301</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>356330618.7622201</v>
+        <v>368008783.78603</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>401737447.5769801</v>
+        <v>408186927.7086101</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>488362539.47276</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>560580245.3254</v>
+        <v>561699062.35263</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>653598274.47223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>663245753.58805</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>742609122.9680001</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>4191425.887679999</v>
+        <v>4191425.88768</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>4839049.280640001</v>
+        <v>4839049.28064</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6231603.40522</v>
+        <v>6232636.095559999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>6835735.061330001</v>
+        <v>6835819.03512</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8023580.943010001</v>
+        <v>8063098.458970001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>9101393.63417</v>
+        <v>9164085.54957</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>10040440.88298</v>
+        <v>10158133.3488</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>12397982.98979</v>
+        <v>12461648.13794</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>15978472.86958</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>19446054.22492</v>
+        <v>19597966.00431</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>25435663.38114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>25550722.63558</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>23738337.287</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>3571343.55096</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>4228430.151919999</v>
+        <v>4229246.436590001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>5196740.5535</v>
+        <v>5197712.64489</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>6058345.296870001</v>
+        <v>6062519.88645</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>6760415.508230001</v>
+        <v>6861693.169789999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>7279980.390879999</v>
+        <v>7699963.12337</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>8710184.664609998</v>
+        <v>9143280.62428</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>9561141.684319999</v>
+        <v>9864689.70011</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>11585314.45677</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>13874389.94461</v>
+        <v>13880696.69458</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>16943416.72925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>17110386.1558</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>19066836.536</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7970855.36087</v>
+        <v>7970855.360870001</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>4172152.49462</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>5393735.87667</v>
+        <v>5393796.947169998</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>6647910.06216</v>
+        <v>6657395.976430001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>7930006.146069999</v>
+        <v>7978486.24438</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>9928762.437039999</v>
+        <v>10214597.03363</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>10435990.86092</v>
+        <v>11417508.51961</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>14474934.57193</v>
+        <v>14880708.22543</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>16634849.80474</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>21039186.76902001</v>
+        <v>21042401.35888</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>42724286.74954999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>43126432.84301</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>29521887.421</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>6423030.48675</v>
@@ -1151,37 +1082,42 @@
         <v>2254287.59267</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2982253.025</v>
+        <v>2982279.222250001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3838483.56511</v>
+        <v>3839282.44402</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4531347.159450001</v>
+        <v>4563900.93127</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>6136851.90621</v>
+        <v>6303426.24554</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>6361636.80501</v>
+        <v>6671492.895859999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>8801725.01991</v>
+        <v>9111535.390340002</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>9508531.835280001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>11801308.88865</v>
+        <v>11804115.27422</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>30033915.34157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>30351352.39157</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>15574466.679</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1435252.92402</v>
@@ -1190,37 +1126,42 @@
         <v>1751065.04438</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2201589.7939</v>
+        <v>2201624.66715</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2554655.39454</v>
+        <v>2562544.24593</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3152563.85002</v>
+        <v>3165626.24913</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3492114.894090001</v>
+        <v>3601453.74621</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3636547.86411</v>
+        <v>4298965.68375</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>5048517.194049999</v>
+        <v>5143877.8403</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>6313064.758490001</v>
+        <v>6313064.758489999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>8106224.476170001</v>
+        <v>8106476.69856</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>11509470.02284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>11573344.03507</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>12706935.429</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>112571.9501</v>
@@ -1232,112 +1173,127 @@
         <v>209893.05777</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>254771.10251</v>
+        <v>255569.28648</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>246095.1366</v>
+        <v>248959.06398</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>299795.6367399999</v>
+        <v>309717.04188</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>437806.1918</v>
+        <v>447049.9400000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>624692.3579700001</v>
+        <v>625294.9947899998</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>813253.2109699999</v>
+        <v>813253.2109700001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1131653.4042</v>
+        <v>1131809.3861</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1180901.38514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1201736.41637</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1240485.313</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>160861805.64034</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>189097124.2424</v>
+        <v>189127696.45486</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>232829452.24866</v>
+        <v>232897979.57282</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>266232537.17075</v>
+        <v>266869706.93226</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>296786093.02763</v>
+        <v>300319486.26153</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>329555166.42702</v>
+        <v>337416068.3202401</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>364645253.44889</v>
+        <v>375892689.2395</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>409221637.6791601</v>
+        <v>415632557.32123</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>499291476.99437</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>572861502.7259099</v>
+        <v>574135323.6926399</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>653253067.83307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>662780429.53642</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>755892409.37</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>135198224.24209</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>158552375.00516</v>
+        <v>158581706.66553</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>195453028.49333</v>
+        <v>195516349.67116</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>223237193.47956</v>
+        <v>223830122.16079</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>247864365.82802</v>
+        <v>251049876.65349</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>274059664.31769</v>
+        <v>280403473.12862</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>300177175.78764</v>
+        <v>309088049.4784999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>336205417.0724999</v>
+        <v>340601787.91351</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>409593900.6371499</v>
+        <v>409593900.63715</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>463794824.97034</v>
+        <v>464998661.13565</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>525024431.17522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>533081037.00653</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>615307216.753</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>4249366.578699999</v>
@@ -1346,76 +1302,86 @@
         <v>5255296.86783</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6746682.086139999</v>
+        <v>6752000.543769999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>7105681.773189999</v>
+        <v>7110895.505009999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>8195122.68883</v>
+        <v>8871872.79551</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7145809.8729</v>
+        <v>7234751.44563</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>7247575.481969999</v>
+        <v>7505517.579550001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>9477077.30535</v>
+        <v>9550273.091079999</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>11504484.67256</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>12180731.9835</v>
+        <v>12333269.91816</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>14708473.6561</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14909559.46661</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>17677225.794</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>127645846.70778</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>149632160.4258</v>
+        <v>149661492.08617</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>184400338.78625</v>
+        <v>184458212.02979</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>211280180.84386</v>
+        <v>211857147.68429</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>234393085.94985</v>
+        <v>236831861.35938</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>260660416.79321</v>
+        <v>266794160.52356</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>286090652.10842</v>
+        <v>294500960.42637</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>318931310.00787</v>
+        <v>323228921.98887</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>388605918.17488</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>440605198.7609201</v>
+        <v>441633028.62265</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>497443488.54316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>505128063.1738099</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>585112755.04</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>3123482.38314</v>
@@ -1424,37 +1390,42 @@
         <v>3494875.961399999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>4109959.04171</v>
+        <v>4110088.45057</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>4615913.51766</v>
+        <v>4625677.70287</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>4936264.19728</v>
+        <v>5002547.442609999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5830500.46334</v>
+        <v>5901809.857419999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>5900753.550220001</v>
+        <v>6125554.262139998</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>6713843.06461</v>
+        <v>6733700.561499999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>8674804.244999999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>9771871.778340001</v>
+        <v>9794207.687880002</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>11593766.89896</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11796934.64023</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>11275413.706</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>179528.57247</v>
@@ -1463,115 +1434,130 @@
         <v>170041.75013</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>196048.57923</v>
+        <v>196048.64703</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>235417.34485</v>
+        <v>236401.26862</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>339892.99206</v>
+        <v>343595.05599</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>422937.18824</v>
+        <v>472751.30201</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>938194.64703</v>
+        <v>956017.2104399999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1083186.69467</v>
+        <v>1088892.27206</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>808693.54471</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1237022.44758</v>
+        <v>1238154.90696</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1278702.077</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1246479.72588</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1241822.213</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>25663581.39825</v>
+        <v>25663581.39824999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>30544749.23724001</v>
+        <v>30545989.78933</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>37376423.75533</v>
+        <v>37381629.90166</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>42995343.69119</v>
+        <v>43039584.77147</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>48921727.19961</v>
+        <v>49269609.60803999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>55495502.10933</v>
+        <v>57012595.19161999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>64468077.66125001</v>
+        <v>66804639.76099999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>73016220.60666001</v>
+        <v>75030769.40772</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>89697576.35721999</v>
+        <v>89697576.35721998</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>109066677.75557</v>
+        <v>109136662.55699</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>128228636.65785</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>129699392.52989</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>140585192.617</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>22039585.67368</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>25832529.45025</v>
+        <v>25833728.69889</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>31797811.34378</v>
+        <v>31802287.51811</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>37474535.48536</v>
+        <v>37519194.12315</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>42860925.50367999</v>
+        <v>43311459.07968999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>48479782.32595</v>
+        <v>50127907.55343</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>55894727.22798</v>
+        <v>58338575.62594</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>64557816.0856</v>
+        <v>66548769.72157001</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>76398864.67655</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>92911386.99669001</v>
+        <v>93077970.46003999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>110359253.53273</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>111590099.36256</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>120183365.633</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>33414.43051</v>
@@ -1586,187 +1572,212 @@
         <v>82803.04119</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>96602.18287</v>
+        <v>96602.18287000002</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>104174.13924</v>
+        <v>105922.1819</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>135248.43666</v>
+        <v>135248.66766</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>164655.06034</v>
+        <v>164878.37746</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>200725.85511</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>266876.89969</v>
+        <v>267353.81631</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>373289.26904</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>362824.2718400001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>541550.263</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>11295020.18107</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>13705973.54279</v>
+        <v>13706714.99573</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>17385024.67385</v>
+        <v>17386883.82956</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>21235870.65266</v>
+        <v>21243146.7917</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>25103966.20573</v>
+        <v>25197485.41681</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>29441851.58002</v>
+        <v>30067249.18000999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>34318270.35928</v>
+        <v>35416073.99937</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>39781641.04718</v>
+        <v>40856573.43114</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>47686846.11317001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>60198067.37875</v>
+        <v>60228281.63205</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>72304533.34521998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>72908115.51311</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>80208717.948</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>10711151.0621</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>12092665.3563</v>
+        <v>12093123.152</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>14342830.73195</v>
+        <v>14345447.75057</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>16155861.79151</v>
+        <v>16193244.29026</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>17660357.11508</v>
+        <v>18017371.48001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>18933756.60669</v>
+        <v>19954736.19152</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>21441208.43204</v>
+        <v>22787252.95891</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>24611519.97808</v>
+        <v>25527317.91297</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>28511292.70827001</v>
+        <v>28511292.70827</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>32446442.71825</v>
+        <v>32582335.01168</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>37681430.91847</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>38319159.57761</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>39433097.422</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>3623995.72457</v>
+        <v>3623995.724570001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>4712219.78699</v>
+        <v>4712261.090439999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>5578612.411549999</v>
+        <v>5579342.38355</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>5520808.205830001</v>
+        <v>5520390.648320001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6060801.695929999</v>
+        <v>5958150.528349999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>7015719.783379999</v>
+        <v>6884687.638189998</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>8573350.43327</v>
+        <v>8466064.135059999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>8458404.521059999</v>
+        <v>8481999.686149999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>13298711.68067</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>16155290.75888</v>
+        <v>16058692.09695</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>17869383.12512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>18109293.16733</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>20401826.984</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5335372.502689999</v>
+        <v>5335372.50269</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>3150623.1932</v>
+        <v>3150769.07368</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3329106.061030001</v>
+        <v>3329237.67743</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3642664.087580001</v>
+        <v>3650948.58006</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4215285.665130001</v>
+        <v>4254345.70654</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4813622.05942</v>
+        <v>5103187.357429999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>7085808.12114</v>
+        <v>7450919.5248</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>7849110.542829999</v>
+        <v>8072260.90807</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>182002660.30122</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>22489580.6485</v>
+        <v>22550667.58267</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>18118654.03233</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>18388980.49114</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>24285510.219</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>64799.53355000001</v>
@@ -1781,31 +1792,36 @@
         <v>168271.10187</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>165610.1383400001</v>
+        <v>165618.39738</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>152748.34229</v>
+        <v>152756.89297</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>191314.95069</v>
+        <v>191577.25818</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>200408.80332</v>
+        <v>277643.86342</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>574799.7165600001</v>
+        <v>574799.71656</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>454771.3702</v>
+        <v>460415.1941799999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>658942.81382</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>663797.80829</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>178236.964</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2450131.70923</v>
@@ -1820,31 +1836,36 @@
         <v>104696.19388</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>78037.85659000001</v>
+        <v>78039.16659000002</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>58970.12831</v>
+        <v>58970.12830999999</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>141551.95436</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>128457.66679</v>
+        <v>130543.70305</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>148767.13786</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>223141.89221</v>
+        <v>223394.39221</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>228898.18681</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>232646.1699</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>238138.201</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>377570.0865499999</v>
@@ -1853,82 +1874,92 @@
         <v>251175.91688</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>318423.78258</v>
+        <v>318442.63166</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>358774.0656099999</v>
+        <v>359403.69484</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>349970.0885</v>
+        <v>356246.96892</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>456823.00591</v>
+        <v>465421.33891</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>606657.4676200001</v>
+        <v>631232.38922</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>796436.4730699999</v>
+        <v>805980.6890199998</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1117169.89508</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1789560.89728</v>
+        <v>1793861.22044</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2152503.61914</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2252545.62885</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2144724.652</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>48494.15014</v>
+        <v>48494.15013999999</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>40646.7939</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>45193.63039</v>
+        <v>45193.63038999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>70402.58661999999</v>
+        <v>70402.58662</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>65314.35818</v>
+        <v>65461.39555</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>75176.1376</v>
+        <v>75311.61150999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>75484.13011</v>
+        <v>76096.32412999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>83786.39815000001</v>
+        <v>87950.01957999999</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>86943.65873000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>118734.26304</v>
+        <v>119285.02064</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>166344.56629</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>169363.93246</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>141301.21</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>76344.11455</v>
+        <v>76344.11454999998</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>57250.28953000001</v>
+        <v>57250.28953</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>113372.79681</v>
@@ -1937,31 +1968,36 @@
         <v>62942.87100000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>137891.05189</v>
+        <v>141199.15085</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>82748.35958</v>
+        <v>89073.78616000002</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>270883.5528599999</v>
+        <v>272755.1620700001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>140183.71176</v>
+        <v>140342.17617</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>191184.88874</v>
+        <v>191184.8887399999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>275356.58779</v>
+        <v>275733.19073</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>355460.3265899999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>356445.0812</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>330405.992</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>14288.13696</v>
@@ -1976,31 +2012,36 @@
         <v>31109.18554</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>45566.22665</v>
+        <v>45756.80535</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>116675.85063</v>
+        <v>117044.99292</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>162443.1444500001</v>
+        <v>162741.49574</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>219757.16133</v>
+        <v>221764.58751</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>151737.55466</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>252316.78268</v>
+        <v>252326.28612</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>555307.95719</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>555733.91757</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>426833.91</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>1355875.78886</v>
@@ -2009,64 +2050,69 @@
         <v>1282439.48185</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1198134.8112</v>
+        <v>1198167.04992</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1265917.3249</v>
+        <v>1265939.99694</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1540781.21726</v>
+        <v>1546305.6866</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2055111.75469</v>
+        <v>2135372.20684</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3448118.523</v>
+        <v>3531634.65986</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3555752.16589</v>
+        <v>3611605.40925</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>176239043.29996</v>
+        <v>176239043.2999601</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>15174795.93444</v>
+        <v>15204124.84696</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>9156704.850579999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>9235209.939520003</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>15371513.361</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>26820.67791</v>
+        <v>26820.67790999999</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>22265.78998</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>36969.80650999999</v>
+        <v>36969.80651</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>28051.03223</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>68728.19735</v>
+        <v>68728.19734999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>119385.39873</v>
+        <v>120008.18955</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>117610.15908</v>
+        <v>118144.94083</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>118124.03925</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>78289.46032999999</v>
+        <v>78289.46033</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>184007.94037</v>
@@ -2074,50 +2120,60 @@
       <c r="M33" s="48" t="n">
         <v>340466.53082</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>267291.304</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>20580.96167</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>22270.36575</v>
+        <v>22416.24623</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>31333.42198</v>
+        <v>31409.43888</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>21396.3722</v>
+        <v>21401.68415</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>34048.00493</v>
+        <v>34094.59162000001</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>39003.49061000001</v>
+        <v>40572.65538</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>49828.76636</v>
+        <v>50187.22915000001</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>67211.33465999999</v>
+        <v>67242.41887000001</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>236662.62416</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>220787.44588</v>
+        <v>221809.32152</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>97656.79041999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>99451.26805</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>294655.471</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>900467.34327</v>
@@ -2126,76 +2182,86 @@
         <v>1132475.22817</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1305898.01255</v>
+        <v>1305902.52425</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1531103.35373</v>
+        <v>1538730.23299</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1729338.52544</v>
+        <v>1752895.34633</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1656979.59107</v>
+        <v>1848655.55488</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2021915.47261</v>
+        <v>2274998.11126</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2538992.78861</v>
+        <v>2611064.00195</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>3178062.06514</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3796107.53461</v>
+        <v>3815710.1695</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>4406368.39067</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4483320.21448</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>4892409.154</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1913434.85455</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1689686.35251</v>
+        <v>1689687.86517</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2484692.097839999</v>
+        <v>2484772.53978</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1970283.37673</v>
+        <v>1972587.84345</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3415380.205970001</v>
+        <v>3443022.65709</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3429778.650089999</v>
+        <v>3536858.28155</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6009065.11705</v>
+        <v>6173124.36278</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>6120814.376240001</v>
+        <v>6220853.388769998</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>178744876.31896</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>19568895.69504</v>
+        <v>19604914.92379</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>13210445.05951</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>13314862.70858</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>21016503.036</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>127613.98346</v>
@@ -2207,73 +2273,83 @@
         <v>169102.0061</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>192482.56434</v>
+        <v>192486.09195</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>172537.8614</v>
+        <v>173595.48944</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>187495.44933</v>
+        <v>189317.3641</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>191989.37409</v>
+        <v>195413.11618</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>230847.95387</v>
+        <v>231819.60267</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>297554.46659</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>363450.78999</v>
+        <v>363533.71716</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>488074.89592</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>490777.9796500001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>564906.774</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>271563.4218599999</v>
+        <v>271563.42186</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>183891.2322</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>226729.93511</v>
+        <v>226738.35232</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>342595.441</v>
+        <v>344862.54598</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>419282.4875099999</v>
+        <v>433925.8840699999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>422206.97662</v>
+        <v>429691.64494</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>662532.2402900001</v>
+        <v>674542.46901</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>661412.6956800001</v>
+        <v>686459.03684</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>617375.86125</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>940538.71276</v>
+        <v>940667.3630199999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>883845.8160700002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>888886.8811700001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>805310.588</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>14939.99108</v>
@@ -2288,31 +2364,36 @@
         <v>11100.91012</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>17935.7328</v>
+        <v>18752.67952</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>108616.63733</v>
+        <v>120816.13899</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>99945.28529</v>
+        <v>100003.86547</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>168560.06982</v>
+        <v>168586.06916</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>20847.57574</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>24467.56079</v>
+        <v>24478.16422</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>45721.77356</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>45715.58544</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>199267.593</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>1237695.78027</v>
@@ -2321,37 +2402,42 @@
         <v>1091728.82112</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1718375.24717</v>
+        <v>1718419.18205</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>925244.8878800002</v>
+        <v>925249.5109000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2294560.91273</v>
+        <v>2304301.66277</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2075987.03737</v>
+        <v>2150390.62103</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4277479.06432</v>
+        <v>4401674.84453</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4191482.73233</v>
+        <v>4255224.08783</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>176854387.70721</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>16934295.04727</v>
+        <v>16966190.17778</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>9984544.712220002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>10067683.9318</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>17846658.94</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>17785.96458</v>
@@ -2369,28 +2455,33 @@
         <v>36046.46891</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>114119.02095</v>
+        <v>114591.96895</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>107261.84413</v>
+        <v>107691.72115</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>150197.83102</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>75611.82112000001</v>
+        <v>75611.82111999999</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>147782.40934</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>334615.10464</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>334627.23035</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>276818.156</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>13436.95347</v>
@@ -2399,154 +2490,174 @@
         <v>17790.31046</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>29946.64494</v>
+        <v>29949.59359</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>10397.19662</v>
+        <v>10397.1967</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>24500.9244</v>
+        <v>24553.86785</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>29403.10599</v>
+        <v>30018.29909</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>40413.56388</v>
+        <v>41109.23952</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>43025.57817999999</v>
+        <v>43018.04153999999</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>75206.49045999999</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>218232.59932</v>
+        <v>218836.42874</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>92343.05710999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>93132.27432</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>221907.029</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>230398.75983</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>258352.01681</v>
+        <v>258353.52947</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>315724.5277</v>
+        <v>315749.6689</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>469032.05738</v>
+        <v>469061.2684099999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>450515.81822</v>
+        <v>451846.60453</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>491950.4224999999</v>
+        <v>502032.2444500001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>629443.74505</v>
+        <v>652689.10692</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>675287.51534</v>
+        <v>685548.7197100001</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>803892.3965900001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>940128.5755700002</v>
+        <v>943426.6635300001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1381299.69999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1394038.82585</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1101633.956</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2469226.03984</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2006662.55983</v>
+        <v>2006667.36007</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3193584.57775</v>
+        <v>3193823.67991</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>3327138.49097</v>
+        <v>3328507.2543</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4198030.72353</v>
+        <v>4237056.848470001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4353385.15003</v>
+        <v>4439613.12314</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6126774.512549999</v>
+        <v>6322154.6224</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>7761836.9215</v>
+        <v>7887904.5788</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>9551729.02853</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>13469575.80287</v>
+        <v>13486217.00744</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>13801225.02433</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>14000537.93764</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>13377044.896</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>2172210.09502</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1732042.15528</v>
+        <v>1732046.95552</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2276493.66162</v>
+        <v>2276732.76378</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2983765.546269999</v>
+        <v>2985051.64877</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3202227.66724</v>
+        <v>3239923.22632</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3974150.02072</v>
+        <v>4044623.189509999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>5089860.26622</v>
+        <v>5268262.26812</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>6537308.24692</v>
+        <v>6663365.269520001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>7887384.889269999</v>
+        <v>7887384.889269998</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>10901418.00156</v>
+        <v>10918002.80605</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>11720855.03868</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>11917121.44209</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>10800694.78</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>297015.94482</v>
@@ -2555,115 +2666,130 @@
         <v>274620.40455</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>917090.91613</v>
+        <v>917090.9161300001</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>343372.9447000001</v>
+        <v>343455.6055299999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>995803.0562899999</v>
+        <v>997133.6221500001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>379235.12931</v>
+        <v>394989.93363</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1036914.24633</v>
+        <v>1053892.35428</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1224528.67458</v>
+        <v>1224539.30928</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>1664344.13926</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2568157.80131</v>
+        <v>2568214.201390001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>2080369.98565</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>2083416.49555</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2576350.116</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>4576707.33287</v>
+        <v>4576707.332870001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>4166494.06785</v>
+        <v>4166674.93888</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>3229441.79699</v>
+        <v>3229983.84129</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3866050.42571</v>
+        <v>3870244.13063</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2662676.43156</v>
+        <v>2532416.729330001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>4046178.04268</v>
+        <v>4011403.59093</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>3523318.92481</v>
+        <v>3421704.67468</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2424863.76615</v>
+        <v>2445502.62665</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>7004766.634399999</v>
+        <v>7004766.634400001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>5606399.90947</v>
+        <v>5518227.74839</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>8976367.073609998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>9182873.012250002</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>10293789.271</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>608212.73844</v>
+        <v>608212.7384400001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>922358.9676699999</v>
+        <v>922408.5966800001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1308835.39968</v>
+        <v>1308881.11202</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1001671.84847</v>
+        <v>1003736.23855</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1221794.22347</v>
+        <v>1247216.12986</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1872301.93153</v>
+        <v>2044083.5663</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1954149.46703</v>
+        <v>2227013.85794</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2241671.97251</v>
+        <v>2423079.09436</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2750466.15402</v>
+        <v>2750466.154019999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4164822.5229</v>
+        <v>4179713.09552</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3463824.19417</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3581245.92022</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4168077.139</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>19723.92133</v>
@@ -2672,115 +2798,130 @@
         <v>14812.23909</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>21563.02566</v>
+        <v>21564.15915</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>24449.25362</v>
+        <v>24482.44762000001</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>53873.71184</v>
+        <v>54308.04274</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>45709.50479</v>
+        <v>45772.49775000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>48822.61384</v>
+        <v>50061.57695</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>157172.68178</v>
+        <v>160679.79059</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>131170.66158</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>35532.50055</v>
+        <v>35540.58438</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>70165.40342</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>72741.0934</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>52220.93</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>588488.8171100001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>907546.72858</v>
+        <v>907596.3575899999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1287272.37402</v>
+        <v>1287316.95287</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>977222.59485</v>
+        <v>979253.7909299999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1167920.51163</v>
+        <v>1192908.08712</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1826592.42674</v>
+        <v>1998311.06855</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1905326.85319</v>
+        <v>2176952.28099</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2084499.29073</v>
+        <v>2262399.303770001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>2619295.49244</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4129290.02235</v>
+        <v>4144172.51114</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3393658.79075</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3508504.82682</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4115856.209</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>512544.7086399999</v>
+        <v>512544.70864</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>685443.89818</v>
+        <v>685598.98804</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>3088135.58434</v>
+        <v>3088358.87225</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>765195.4728599999</v>
+        <v>765691.3656700001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>996766.1802000001</v>
+        <v>1009290.09616</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>2000371.64491</v>
+        <v>2194395.07382</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1420320.66813</v>
+        <v>1504807.7373</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>3257897.07133</v>
+        <v>3453928.91477</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1792840.25919</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>3926194.18947</v>
+        <v>3949947.761320001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3090472.58022</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3157314.94763</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2694246.012</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>9996.658240000001</v>
@@ -2792,226 +2933,254 @@
         <v>15782.5713</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>11078.73959</v>
+        <v>11155.9972</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>17234.16228</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>36341.4257</v>
+        <v>36954.06301999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>10828.22715</v>
+        <v>11461.08891</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>18943.35123</v>
+        <v>22686.83336</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>16582.64162</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>19045.77082999999</v>
+        <v>19126.28962</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>15678.36872</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>16292.59683</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>46587.317</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>48016.70163</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>84779.41073</v>
+        <v>84779.41072999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>79470.16950999999</v>
+        <v>79470.24411</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>50097.6953</v>
+        <v>50124.29790999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>61112.04753</v>
+        <v>70863.03975999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>115219.30273</v>
+        <v>123377.89669</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>75967.99922</v>
+        <v>79876.86231000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>111676.6042</v>
+        <v>123730.26908</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>136156.39853</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>187390.91644</v>
+        <v>188005.91806</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>166506.47557</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>167227.62668</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>111493.471</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>454531.3487699999</v>
+        <v>454531.34877</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>584606.4700399999</v>
+        <v>584761.5599</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2992882.84353</v>
+        <v>2993106.05684</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>704019.0379699999</v>
+        <v>704411.0705599999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>918419.97039</v>
+        <v>921192.89412</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1848810.91648</v>
+        <v>2034063.11411</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1333524.44176</v>
+        <v>1413469.78608</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>3127277.1159</v>
+        <v>3307511.81233</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1640101.21904</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>3719757.5022</v>
+        <v>3742815.553640001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2908287.73593</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2973794.72412</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2536165.224</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>4672375.36267</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4403409.13734</v>
+        <v>4403484.54752</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1450141.61233</v>
+        <v>1450506.08106</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>4102526.80132</v>
+        <v>4108289.00351</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2887704.47483</v>
+        <v>2770342.76303</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3918108.329300001</v>
+        <v>3861092.083410001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>4057147.72371</v>
+        <v>4143910.79532</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1408638.66733</v>
+        <v>1414652.80624</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>7962392.52923</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>5845028.242900001</v>
+        <v>5747993.08259</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>9349718.68756</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>9606803.98484</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>11767620.398</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>740247.32922</v>
+        <v>740247.3292200001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>931139.7536599999</v>
+        <v>931151.2721599999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1163521.16419</v>
+        <v>1163673.45275</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1187523.33649</v>
+        <v>1189217.27494</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1358769.9012</v>
+        <v>1367470.82882</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1349735.97555</v>
+        <v>1367108.43894</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1733528.470070001</v>
+        <v>1749839.53878</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1642449.63833</v>
+        <v>1714767.95394</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>2543926.52893</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3127239.35778</v>
+        <v>3131484.09531</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3547689.79984</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3621816.1851</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4590721.835</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>3932128.03345</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3472269.38368</v>
+        <v>3472333.27536</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>286620.44814</v>
+        <v>286832.6283099999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2915003.46483</v>
+        <v>2919071.72857</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1528934.57363</v>
+        <v>1402871.93421</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2568372.35375</v>
+        <v>2493983.64447</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2323619.25364</v>
+        <v>2394071.25654</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-233810.9709999999</v>
+        <v>-300115.1477000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>5418466.0003</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2717788.88512</v>
+        <v>2616508.98728</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>5802028.887719999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>5984987.799740001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>7176898.563</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>86622</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>87188</v>
+        <v>87193</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>87001</v>
+        <v>87018</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>84534</v>
+        <v>84619</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>81096</v>
+        <v>81424</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>79199</v>
+        <v>79688</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>78449</v>
+        <v>79384</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>79365</v>
+        <v>79878</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>81925</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>75474</v>
+        <v>82951</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>75949</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>85809</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>91312</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>